--- a/Master-functional-testcases/resident-services/Resident 1.0.11 cases.xlsx
+++ b/Master-functional-testcases/resident-services/Resident 1.0.11 cases.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Testcases\1.0.11\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rakshit.B\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="1560"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="1.0.11" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="159">
   <si>
     <t xml:space="preserve">TestCase_No </t>
   </si>
@@ -417,12 +417,101 @@
   </si>
   <si>
     <t>Resident Service_VID_7</t>
+  </si>
+  <si>
+    <t>Resident service_OTP_01</t>
+  </si>
+  <si>
+    <t>Resident service</t>
+  </si>
+  <si>
+    <t>OTP</t>
+  </si>
+  <si>
+    <t>Verify request OTP through new resident  OTP service</t>
+  </si>
+  <si>
+    <t>Resident should receive OTP</t>
+  </si>
+  <si>
+    <t>Resident service_OTP_02</t>
+  </si>
+  <si>
+    <t>Verify request OTP should expire after cofigured time</t>
+  </si>
+  <si>
+    <t>Resident service_OTP_03</t>
+  </si>
+  <si>
+    <t>Verify request OTP  using valid data</t>
+  </si>
+  <si>
+    <t>Resident service_OTP_04</t>
+  </si>
+  <si>
+    <t>Verify request OTP  using invalid data</t>
+  </si>
+  <si>
+    <t>OTP should not be send to resident and should get appropriate error/ validation message</t>
+  </si>
+  <si>
+    <t>Resident service_OTP_05</t>
+  </si>
+  <si>
+    <t>Verify OTP received  through EMAIL/MOBILE number</t>
+  </si>
+  <si>
+    <t>Resident service_Policy details_01</t>
+  </si>
+  <si>
+    <t>Policy details</t>
+  </si>
+  <si>
+    <t>Mosip partner should be able to  fetch policy details using credential type and partner id</t>
+  </si>
+  <si>
+    <t>Partner should get polcy details</t>
+  </si>
+  <si>
+    <t>Resident service_Policy details_02</t>
+  </si>
+  <si>
+    <t>Verify by not giving mandatory input parameters(Credential Type and Partner ID)</t>
+  </si>
+  <si>
+    <t>Partner should not get policy details</t>
+  </si>
+  <si>
+    <t>Resident service_Policy details_03</t>
+  </si>
+  <si>
+    <t>Verify by giving invalid data in credential type</t>
+  </si>
+  <si>
+    <t>Resident service_Policy details_04</t>
+  </si>
+  <si>
+    <t>Verify by giving invalid data in partner id</t>
+  </si>
+  <si>
+    <t>Resident Service_Credentialissuance_01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Credential Issuance
+</t>
+  </si>
+  <si>
+    <t>Verify the print service with QR code having the best finger</t>
+  </si>
+  <si>
+    <t>QR code should have best two fingers</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -493,7 +582,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -502,6 +591,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -783,10 +878,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="J5" sqref="F5:J7"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="H59" sqref="H59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1950,6 +2045,236 @@
         <v>10</v>
       </c>
     </row>
+    <row r="51" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>130</v>
+      </c>
+      <c r="B51" t="s">
+        <v>131</v>
+      </c>
+      <c r="C51" t="s">
+        <v>132</v>
+      </c>
+      <c r="D51" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="G51" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>135</v>
+      </c>
+      <c r="B52" t="s">
+        <v>131</v>
+      </c>
+      <c r="C52" t="s">
+        <v>132</v>
+      </c>
+      <c r="D52" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="G52" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>137</v>
+      </c>
+      <c r="B53" t="s">
+        <v>131</v>
+      </c>
+      <c r="C53" t="s">
+        <v>132</v>
+      </c>
+      <c r="D53" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="G53" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>139</v>
+      </c>
+      <c r="B54" t="s">
+        <v>131</v>
+      </c>
+      <c r="C54" t="s">
+        <v>132</v>
+      </c>
+      <c r="D54" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="G54" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>142</v>
+      </c>
+      <c r="B55" t="s">
+        <v>131</v>
+      </c>
+      <c r="C55" t="s">
+        <v>132</v>
+      </c>
+      <c r="D55" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="G55" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>144</v>
+      </c>
+      <c r="B56" t="s">
+        <v>131</v>
+      </c>
+      <c r="C56" t="s">
+        <v>145</v>
+      </c>
+      <c r="D56" t="s">
+        <v>8</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="G56" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>148</v>
+      </c>
+      <c r="B57" t="s">
+        <v>131</v>
+      </c>
+      <c r="C57" t="s">
+        <v>145</v>
+      </c>
+      <c r="D57" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="G57" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>151</v>
+      </c>
+      <c r="B58" t="s">
+        <v>131</v>
+      </c>
+      <c r="C58" t="s">
+        <v>145</v>
+      </c>
+      <c r="D58" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="G58" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>153</v>
+      </c>
+      <c r="B59" t="s">
+        <v>131</v>
+      </c>
+      <c r="C59" t="s">
+        <v>145</v>
+      </c>
+      <c r="D59" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="G59" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>155</v>
+      </c>
+      <c r="B60" t="s">
+        <v>47</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="D60" t="s">
+        <v>8</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="G60" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B294">

--- a/Master-functional-testcases/resident-services/Resident 1.0.11 cases.xlsx
+++ b/Master-functional-testcases/resident-services/Resident 1.0.11 cases.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="160">
   <si>
     <t xml:space="preserve">TestCase_No </t>
   </si>
@@ -435,9 +435,6 @@
   </si>
   <si>
     <t>Resident service_OTP_02</t>
-  </si>
-  <si>
-    <t>Verify request OTP should expire after cofigured time</t>
   </si>
   <si>
     <t>Resident service_OTP_03</t>
@@ -506,6 +503,12 @@
   </si>
   <si>
     <t>QR code should have best two fingers</t>
+  </si>
+  <si>
+    <t>Verify  OTP should expire after cofigured time</t>
+  </si>
+  <si>
+    <t>OTP should get expire</t>
   </si>
 </sst>
 </file>
@@ -880,8 +883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="H59" sqref="H59"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2082,10 +2085,10 @@
         <v>8</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>134</v>
+        <v>159</v>
       </c>
       <c r="G52" t="s">
         <v>7</v>
@@ -2093,7 +2096,7 @@
     </row>
     <row r="53" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B53" t="s">
         <v>131</v>
@@ -2105,7 +2108,7 @@
         <v>8</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F53" s="5" t="s">
         <v>134</v>
@@ -2116,7 +2119,7 @@
     </row>
     <row r="54" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B54" t="s">
         <v>131</v>
@@ -2128,10 +2131,10 @@
         <v>8</v>
       </c>
       <c r="E54" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F54" s="5" t="s">
         <v>140</v>
-      </c>
-      <c r="F54" s="5" t="s">
-        <v>141</v>
       </c>
       <c r="G54" t="s">
         <v>7</v>
@@ -2139,7 +2142,7 @@
     </row>
     <row r="55" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B55" t="s">
         <v>131</v>
@@ -2151,7 +2154,7 @@
         <v>8</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F55" s="5" t="s">
         <v>134</v>
@@ -2162,22 +2165,22 @@
     </row>
     <row r="56" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B56" t="s">
         <v>131</v>
       </c>
       <c r="C56" t="s">
+        <v>144</v>
+      </c>
+      <c r="D56" t="s">
+        <v>8</v>
+      </c>
+      <c r="E56" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="D56" t="s">
-        <v>8</v>
-      </c>
-      <c r="E56" s="5" t="s">
+      <c r="F56" s="5" t="s">
         <v>146</v>
-      </c>
-      <c r="F56" s="5" t="s">
-        <v>147</v>
       </c>
       <c r="G56" t="s">
         <v>7</v>
@@ -2185,22 +2188,22 @@
     </row>
     <row r="57" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B57" t="s">
         <v>131</v>
       </c>
       <c r="C57" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D57" t="s">
         <v>8</v>
       </c>
       <c r="E57" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F57" s="5" t="s">
         <v>149</v>
-      </c>
-      <c r="F57" s="5" t="s">
-        <v>150</v>
       </c>
       <c r="G57" t="s">
         <v>7</v>
@@ -2208,22 +2211,22 @@
     </row>
     <row r="58" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B58" t="s">
         <v>131</v>
       </c>
       <c r="C58" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D58" t="s">
         <v>8</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G58" t="s">
         <v>7</v>
@@ -2231,22 +2234,22 @@
     </row>
     <row r="59" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B59" t="s">
         <v>131</v>
       </c>
       <c r="C59" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D59" t="s">
         <v>8</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G59" t="s">
         <v>7</v>
@@ -2254,22 +2257,22 @@
     </row>
     <row r="60" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>154</v>
+      </c>
+      <c r="B60" t="s">
+        <v>47</v>
+      </c>
+      <c r="C60" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="B60" t="s">
-        <v>47</v>
-      </c>
-      <c r="C60" s="6" t="s">
+      <c r="D60" t="s">
+        <v>8</v>
+      </c>
+      <c r="E60" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="D60" t="s">
-        <v>8</v>
-      </c>
-      <c r="E60" s="5" t="s">
+      <c r="F60" s="5" t="s">
         <v>157</v>
-      </c>
-      <c r="F60" s="5" t="s">
-        <v>158</v>
       </c>
       <c r="G60" t="s">
         <v>7</v>

--- a/Master-functional-testcases/resident-services/Resident 1.0.11 cases.xlsx
+++ b/Master-functional-testcases/resident-services/Resident 1.0.11 cases.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="164">
   <si>
     <t xml:space="preserve">TestCase_No </t>
   </si>
@@ -509,6 +509,18 @@
   </si>
   <si>
     <t>OTP should get expire</t>
+  </si>
+  <si>
+    <t>Story id</t>
+  </si>
+  <si>
+    <t>MOSIP-10831</t>
+  </si>
+  <si>
+    <t>MOSIP-11303</t>
+  </si>
+  <si>
+    <t>MOSIP-11498</t>
   </si>
 </sst>
 </file>
@@ -881,10 +893,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G60"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="G54" sqref="G54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -896,9 +908,10 @@
     <col min="5" max="5" width="22.28515625" customWidth="1"/>
     <col min="6" max="6" width="34" customWidth="1"/>
     <col min="7" max="7" width="12.42578125" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -920,8 +933,11 @@
       <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H1" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>55</v>
       </c>
@@ -944,7 +960,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>56</v>
       </c>
@@ -967,7 +983,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>57</v>
       </c>
@@ -990,7 +1006,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>58</v>
       </c>
@@ -1013,7 +1029,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>59</v>
       </c>
@@ -1036,7 +1052,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>60</v>
       </c>
@@ -1059,7 +1075,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>62</v>
       </c>
@@ -1082,7 +1098,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>65</v>
       </c>
@@ -1105,7 +1121,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>66</v>
       </c>
@@ -1128,7 +1144,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>67</v>
       </c>
@@ -1151,7 +1167,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>68</v>
       </c>
@@ -1174,7 +1190,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>69</v>
       </c>
@@ -1197,7 +1213,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>70</v>
       </c>
@@ -1220,7 +1236,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>72</v>
       </c>
@@ -1243,7 +1259,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>71</v>
       </c>
@@ -2002,7 +2018,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>128</v>
       </c>
@@ -2025,7 +2041,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>129</v>
       </c>
@@ -2048,7 +2064,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>130</v>
       </c>
@@ -2070,8 +2086,11 @@
       <c r="G51" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="H51" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>135</v>
       </c>
@@ -2093,8 +2112,11 @@
       <c r="G52" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H52" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>136</v>
       </c>
@@ -2116,8 +2138,11 @@
       <c r="G53" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="H53" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>138</v>
       </c>
@@ -2139,8 +2164,11 @@
       <c r="G54" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="H54" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>141</v>
       </c>
@@ -2162,8 +2190,11 @@
       <c r="G55" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H55" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>143</v>
       </c>
@@ -2185,8 +2216,11 @@
       <c r="G56" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H56" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>147</v>
       </c>
@@ -2208,8 +2242,11 @@
       <c r="G57" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H57" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>150</v>
       </c>
@@ -2231,8 +2268,11 @@
       <c r="G58" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H58" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>152</v>
       </c>
@@ -2254,8 +2294,11 @@
       <c r="G59" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H59" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>154</v>
       </c>
@@ -2276,6 +2319,9 @@
       </c>
       <c r="G60" t="s">
         <v>7</v>
+      </c>
+      <c r="H60" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>

--- a/Master-functional-testcases/resident-services/Resident 1.0.11 cases.xlsx
+++ b/Master-functional-testcases/resident-services/Resident 1.0.11 cases.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="186">
   <si>
     <t xml:space="preserve">TestCase_No </t>
   </si>
@@ -491,17 +491,6 @@
     <t>Verify by giving invalid data in partner id</t>
   </si>
   <si>
-    <t>Resident Service_Credentialissuance_01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Credential Issuance
-</t>
-  </si>
-  <si>
-    <t>Verify the print service with QR code having the best finger</t>
-  </si>
-  <si>
     <t>QR code should have best two fingers</t>
   </si>
   <si>
@@ -521,6 +510,81 @@
   </si>
   <si>
     <t>MOSIP-11498</t>
+  </si>
+  <si>
+    <t>Resident Service_Best two Fingers_01</t>
+  </si>
+  <si>
+    <t>Best two fingers</t>
+  </si>
+  <si>
+    <t>Verify QR code having the best two finger</t>
+  </si>
+  <si>
+    <t>Resident Service_Best two Fingers_02</t>
+  </si>
+  <si>
+    <t>Verify QR code having the best fingers with having only specific fingers in policy</t>
+  </si>
+  <si>
+    <t>QRcode should have best two fingers based on fingers mentioned in policy</t>
+  </si>
+  <si>
+    <t>Resident Service_Best two Fingers_03</t>
+  </si>
+  <si>
+    <t>Verify QR code having the best fingers by not giving specific fingers in policy</t>
+  </si>
+  <si>
+    <t>QRcode should have best two fingers by comparing score of all the fingers</t>
+  </si>
+  <si>
+    <t>Resident Service_Best two Fingers_04</t>
+  </si>
+  <si>
+    <t>Verify rank for best fingers given based on score</t>
+  </si>
+  <si>
+    <t>Rank for best fingers should be based on score and rank one finger should be first and rank two finger should be second</t>
+  </si>
+  <si>
+    <t>Residentservice_Thumbprint_01</t>
+  </si>
+  <si>
+    <t>Resident  service</t>
+  </si>
+  <si>
+    <t>Thumbprint</t>
+  </si>
+  <si>
+    <t>Verify Update UIN by making thumbprint enable in ida properties</t>
+  </si>
+  <si>
+    <t>Update UIN should work</t>
+  </si>
+  <si>
+    <t>Residentservice_Thumbprint_02</t>
+  </si>
+  <si>
+    <t>thumbprint</t>
+  </si>
+  <si>
+    <t>Verify credentialissuance by making thumbprint enable in ida properties</t>
+  </si>
+  <si>
+    <t>Credential issuance should work</t>
+  </si>
+  <si>
+    <t>Residentservice_Thumbprint_03</t>
+  </si>
+  <si>
+    <t>Verify Authhistory by making thumbprint enable in ida properties</t>
+  </si>
+  <si>
+    <t>Authhistory should work</t>
+  </si>
+  <si>
+    <t>MOSIP-11478</t>
   </si>
 </sst>
 </file>
@@ -597,7 +661,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -610,8 +674,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -893,10 +965,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H60"/>
+  <dimension ref="A1:H66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="H66" sqref="H66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -934,7 +1006,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -2087,7 +2159,7 @@
         <v>7</v>
       </c>
       <c r="H51" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -2104,16 +2176,16 @@
         <v>8</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G52" t="s">
         <v>7</v>
       </c>
       <c r="H52" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -2139,7 +2211,7 @@
         <v>7</v>
       </c>
       <c r="H53" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -2165,7 +2237,7 @@
         <v>7</v>
       </c>
       <c r="H54" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -2191,7 +2263,7 @@
         <v>7</v>
       </c>
       <c r="H55" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -2217,7 +2289,7 @@
         <v>7</v>
       </c>
       <c r="H56" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -2243,7 +2315,7 @@
         <v>7</v>
       </c>
       <c r="H57" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -2269,7 +2341,7 @@
         <v>7</v>
       </c>
       <c r="H58" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -2295,33 +2367,189 @@
         <v>7</v>
       </c>
       <c r="H59" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="8" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="B60" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="F60" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="B60" t="s">
-        <v>47</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="D60" t="s">
-        <v>8</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="F60" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="G60" t="s">
+      <c r="G60" s="10" t="s">
         <v>7</v>
       </c>
       <c r="H60" t="s">
-        <v>163</v>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A61" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="F61" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="G61" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H61" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A62" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="F62" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="G62" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H62" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A63" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="F63" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="G63" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H63" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G64" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H64" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G65" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H65" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G66" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H66" t="s">
+        <v>185</v>
       </c>
     </row>
   </sheetData>
